--- a/Robak/doc/Ecler mimo1212SG.xlsx
+++ b/Robak/doc/Ecler mimo1212SG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="185">
   <si>
     <t>IN</t>
   </si>
@@ -551,6 +551,24 @@
   </si>
   <si>
     <t>6) SPA</t>
+  </si>
+  <si>
+    <t>Keypad</t>
+  </si>
+  <si>
+    <t>KP-09</t>
+  </si>
+  <si>
+    <t>KP-18</t>
+  </si>
+  <si>
+    <t>KP-11</t>
+  </si>
+  <si>
+    <t>KP-25</t>
+  </si>
+  <si>
+    <t>KP-19</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1092,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1713,37 +1731,60 @@
         <v>170</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="3"/>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="3"/>
       <c r="C24" s="4"/>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="3"/>
       <c r="C25" s="4"/>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="3"/>
     </row>
   </sheetData>
